--- a/biology/Botanique/Wrightia/Wrightia.xlsx
+++ b/biology/Botanique/Wrightia/Wrightia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wrightia est un genre de plantes à fleurs de la famille des Apocynaceae, de la sous-famille des Apocynoideae, originaire des régions tropicales de l'Est de l'Afrique, du Sud et Sud-Est de l'Asie et d'Autralasie, qui comprend une trentaine d'espèces acceptées.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Wrightia sont des arbres ou des arbustes à latex.  
 Les feuilles, pétiolées, sont opposées, avec des glandes axillaires. 
@@ -519,7 +533,7 @@
 Les sépales présentent 5 à 10 glandes basales, en forme d'écailles. 
 La corolle, tubulaire, en entonnoir ou rotacée, comprend un tube cylindrique à campanulé, avec des lobes se chevauchant vers la gauche. La couronne est ligulée, frangée ou en forme de coupe, entière ou sub-entière à l'apex, divisée plus ou moins profondément, parfois absente. Les étamines sont insérées au milieu, à l'apex ou plus rarement à la base du tube de la corolle. Les  anthères sont sagittées, conniventes et adhérentes à la tête du pistil, exsertes, éperonnées à la base. Les ovaires, au nombre de 2, sont distincts ou connés, avec de nombreux ovules dans chaque loge. Le style est filiforme, la tête du pistil est ovoïde, généralement dilatée à la base. 
 Les fruits sont composés de 2 follicules, connés ou divariqués. 
-Les graines étroitement fusiformes, présentent une aigrette apicale dirigée vers la base du fruit, sans bec[2].
+Les graines étroitement fusiformes, présentent une aigrette apicale dirigée vers la base du fruit, sans bec.
 </t>
         </is>
       </c>
@@ -550,16 +564,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom générique, « Wrightia » est un hommage à William Wright (1740-1827), médecin et botaniste écossais[3]. 
-Synonymes
-Selon Plants of the World online (POWO)                (10 novembre 2020)[4] :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Wrightia » est un hommage à William Wright (1740-1827), médecin et botaniste écossais. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wrightia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wrightia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (10 novembre 2020) :
 Balfouria R.Br.
 Piaggiaea Chiov.
 Scleranthera Pichon
-Walidda (A.DC.) Pichon
-Liste d'espèces
-Selon Plants of the World online (POWO)                (10 novembre 2020)[4] :
+Walidda (A.DC.) Pichon</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wrightia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wrightia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (10 novembre 2020) :
 Wrightia angustifolia Thwaites
 Wrightia annamensis Eberh. &amp; Dubard
 Wrightia antidysenterica (L.) R.Br.
